--- a/downloaded_files/ELCS103_Lecture-35338.xlsx
+++ b/downloaded_files/ELCS103_Lecture-35338.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>Ziad Mohamed Awad Ali Awad</x:t>
   </x:si>
   <x:si>
+    <x:t>1220244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد نور الدين عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Noureldin Abdalla</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220307</x:t>
   </x:si>
   <x:si>
@@ -175,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mahmoud Ahmed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
   </x:si>
   <x:si>
     <x:t>4250185</x:t>
@@ -443,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1186,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670064815</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4210917824</x:v>
+        <x:v>45907.6670064815</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6670137731</x:v>
+        <x:v>45908.4210917824</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45907.6670137731</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.669953125</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650201389</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.669953125</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650699421</x:v>
+        <x:v>45907.6650201389</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6675451736</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45907.6650699421</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.6675451736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.3118204514</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6687499653</x:v>
+        <x:v>45912.3118204514</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45907.6687499653</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1894,70 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6649788194</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6673608449</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuit Analysis (ELCS103) Location : [20107]20107-45-الجيزة الرئيسي Time : Wednesday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/ELCS103_Lecture-35338.xlsx
+++ b/downloaded_files/ELCS103_Lecture-35338.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Alaa Mohamed Elbadry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود يوسف على امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Youssef Ali Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1240266</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1684,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6675451736</x:v>
+        <x:v>45927.4281545949</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45907.6675451736</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.3118204514</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45912.3118204514</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6687499653</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.6687499653</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.6673608449</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ELCS103_Lecture-35338.xlsx
+++ b/downloaded_files/ELCS103_Lecture-35338.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Youssef Ali Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد سمير محمد على الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Ahmed Samir</x:t>
   </x:si>
   <x:si>
     <x:t>1240266</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1725,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6675451736</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45907.6675451736</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.3118204514</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45912.3118204514</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6687499653</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.6687499653</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6673608449</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ELCS103_Lecture-35338.xlsx
+++ b/downloaded_files/ELCS103_Lecture-35338.xlsx
@@ -2045,11 +2045,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuit Analysis (ELCS103) Location : [20107]20107-45-الجيزة الرئيسي Time : Wednesday(8:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuit Analysis (ELCS103) Location : [20107]20107-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuit Analysis (ELCS103) Location : [20107]20107-45-الجيزة الرئيسي Time : Wednesday(8:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuit Analysis (ELCS103) Location : [20107]20107-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuit Analysis (ELCS103) Location : [20107]20107-45-الجيزة الرئيسي Time : Wednesday(8:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuit Analysis (ELCS103) Location : [20107]20107-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
